--- a/src/main/java/lomt/pearson/fileupload/reports/Product_TOC_Report_Ingestion.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/reports/Product_TOC_Report_Ingestion.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gaurav_gup\Desktop\test data ingestion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5820" tabRatio="454"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Program Title</t>
   </si>
@@ -143,14 +138,32 @@
     <t>Product Test 6</t>
   </si>
   <si>
-    <t>Automation_Ingested_Product</t>
+    <t>Alfresco1</t>
+  </si>
+  <si>
+    <t>Alfresco2</t>
+  </si>
+  <si>
+    <t>Alfresco3</t>
+  </si>
+  <si>
+    <t>Alfresco4</t>
+  </si>
+  <si>
+    <t>Alfresco5</t>
+  </si>
+  <si>
+    <t>Alfresco6</t>
+  </si>
+  <si>
+    <t>Automation_Report_Verification_Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -347,7 +360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -524,21 +537,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
@@ -558,7 +571,7 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -566,7 +579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -574,15 +587,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -590,7 +603,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -598,13 +611,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -612,7 +625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -620,7 +633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -628,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -636,7 +649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -644,7 +657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -694,9 +707,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
@@ -716,11 +731,13 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="C14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>33</v>
@@ -738,11 +755,13 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>35</v>
@@ -761,11 +780,13 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>36</v>
@@ -784,11 +805,13 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C17" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>37</v>
@@ -807,11 +830,13 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C18" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>38</v>
@@ -830,7 +855,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -843,7 +868,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -856,7 +881,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -869,7 +894,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -882,7 +907,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -893,7 +918,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -904,7 +929,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -917,7 +942,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -930,7 +955,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -943,7 +968,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -956,7 +981,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -969,7 +994,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -982,7 +1007,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -995,7 +1020,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1008,7 +1033,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1021,7 +1046,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1034,7 +1059,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1047,7 +1072,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1060,7 +1085,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1071,7 +1096,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1084,7 +1109,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1097,7 +1122,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1110,7 +1135,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1123,7 +1148,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1136,7 +1161,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1149,7 +1174,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1162,7 +1187,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1175,7 +1200,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1188,7 +1213,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1201,7 +1226,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1214,7 +1239,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1227,7 +1252,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1240,7 +1265,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1253,7 +1278,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1266,7 +1291,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1279,7 +1304,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1292,7 +1317,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1305,7 +1330,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1318,7 +1343,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1331,7 +1356,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1344,7 +1369,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1357,7 +1382,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1370,7 +1395,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1383,7 +1408,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1396,7 +1421,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1409,7 +1434,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1422,7 +1447,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1433,7 +1458,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1446,7 +1471,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1459,7 +1484,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1472,7 +1497,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1485,7 +1510,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1498,7 +1523,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1511,7 +1536,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1524,7 +1549,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1537,7 +1562,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1550,7 +1575,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1563,7 +1588,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1576,7 +1601,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1589,7 +1614,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1602,7 +1627,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1615,7 +1640,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="G80" s="4"/>
@@ -1623,7 +1648,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="G81" s="4"/>
@@ -1631,7 +1656,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="G82" s="4"/>
@@ -1639,7 +1664,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1652,7 +1677,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="G84" s="4"/>
@@ -1660,7 +1685,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="G85" s="4"/>
@@ -1668,7 +1693,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="G86" s="4"/>
@@ -1676,7 +1701,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1689,7 +1714,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="G88" s="4"/>
@@ -1697,7 +1722,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="G89" s="4"/>
@@ -1705,7 +1730,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="G90" s="4"/>
@@ -1713,7 +1738,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -1726,7 +1751,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="G92" s="4"/>

--- a/src/main/java/lomt/pearson/fileupload/reports/Product_TOC_Report_Ingestion.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/reports/Product_TOC_Report_Ingestion.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5820" tabRatio="454"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Program Title</t>
   </si>
@@ -136,24 +141,6 @@
   </si>
   <si>
     <t>Product Test 6</t>
-  </si>
-  <si>
-    <t>Alfresco1</t>
-  </si>
-  <si>
-    <t>Alfresco2</t>
-  </si>
-  <si>
-    <t>Alfresco3</t>
-  </si>
-  <si>
-    <t>Alfresco4</t>
-  </si>
-  <si>
-    <t>Alfresco5</t>
-  </si>
-  <si>
-    <t>Alfresco6</t>
   </si>
   <si>
     <t>Automation_Report_Verification_Product</t>
@@ -162,8 +149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -360,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -537,21 +524,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
@@ -571,7 +558,7 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -579,7 +566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -587,15 +574,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -603,7 +590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -611,13 +598,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -625,7 +612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -633,7 +620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -641,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -649,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -657,7 +644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -707,11 +694,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4">
         <v>1</v>
       </c>
@@ -731,11 +716,9 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="4">
         <v>2</v>
       </c>
@@ -755,11 +738,9 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4">
         <v>3</v>
       </c>
@@ -780,11 +761,9 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="4">
         <v>4</v>
       </c>
@@ -805,11 +784,9 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="4">
         <v>5</v>
       </c>
@@ -830,11 +807,9 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="4">
         <v>6</v>
       </c>
@@ -855,7 +830,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -868,7 +843,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -881,7 +856,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -894,7 +869,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -907,7 +882,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -918,7 +893,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -929,7 +904,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -942,7 +917,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -955,7 +930,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -968,7 +943,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -981,7 +956,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -994,7 +969,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1007,7 +982,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1020,7 +995,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1033,7 +1008,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1046,7 +1021,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1059,7 +1034,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1072,7 +1047,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1085,7 +1060,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1096,7 +1071,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1109,7 +1084,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1122,7 +1097,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1135,7 +1110,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1148,7 +1123,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1161,7 +1136,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1174,7 +1149,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1187,7 +1162,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1200,7 +1175,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1213,7 +1188,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1226,7 +1201,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1239,7 +1214,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1252,7 +1227,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1265,7 +1240,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1278,7 +1253,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1291,7 +1266,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1304,7 +1279,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1317,7 +1292,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1330,7 +1305,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1343,7 +1318,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1356,7 +1331,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1369,7 +1344,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1382,7 +1357,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1395,7 +1370,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1408,7 +1383,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1421,7 +1396,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1434,7 +1409,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1447,7 +1422,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1458,7 +1433,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1471,7 +1446,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1484,7 +1459,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1497,7 +1472,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1510,7 +1485,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1523,7 +1498,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1536,7 +1511,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1549,7 +1524,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1562,7 +1537,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1575,7 +1550,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1588,7 +1563,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1601,7 +1576,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1614,7 +1589,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1627,7 +1602,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1640,7 +1615,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="G80" s="4"/>
@@ -1648,7 +1623,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="G81" s="4"/>
@@ -1656,7 +1631,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="G82" s="4"/>
@@ -1664,7 +1639,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1677,7 +1652,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="G84" s="4"/>
@@ -1685,7 +1660,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="G85" s="4"/>
@@ -1693,7 +1668,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="G86" s="4"/>
@@ -1701,7 +1676,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1714,7 +1689,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="G88" s="4"/>
@@ -1722,7 +1697,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="G89" s="4"/>
@@ -1730,7 +1705,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="G90" s="4"/>
@@ -1738,7 +1713,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -1751,7 +1726,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="G92" s="4"/>
